--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H2">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I2">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J2">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>6381.14102369297</v>
+        <v>6654.203014773974</v>
       </c>
       <c r="R2">
-        <v>57430.26921323672</v>
+        <v>59887.82713296577</v>
       </c>
       <c r="S2">
-        <v>0.06323537057063726</v>
+        <v>0.07300331733470367</v>
       </c>
       <c r="T2">
-        <v>0.07259594575511193</v>
+        <v>0.08025816292010896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H3">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I3">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J3">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>6828.740017189471</v>
+        <v>8072.354300443248</v>
       </c>
       <c r="R3">
-        <v>61458.66015470524</v>
+        <v>72651.18870398923</v>
       </c>
       <c r="S3">
-        <v>0.06767095475780745</v>
+        <v>0.08856186703727066</v>
       </c>
       <c r="T3">
-        <v>0.07768811847645848</v>
+        <v>0.09736287353352158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H4">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I4">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J4">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>3428.933451988957</v>
+        <v>4557.244036506233</v>
       </c>
       <c r="R4">
-        <v>30860.40106790061</v>
+        <v>41015.19632855609</v>
       </c>
       <c r="S4">
-        <v>0.03397979713870823</v>
+        <v>0.04999756271789239</v>
       </c>
       <c r="T4">
-        <v>0.03900974229439881</v>
+        <v>0.05496616702804881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H5">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I5">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J5">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>7814.022295839037</v>
+        <v>4970.018083417813</v>
       </c>
       <c r="R5">
-        <v>46884.13377503422</v>
+        <v>29820.10850050687</v>
       </c>
       <c r="S5">
-        <v>0.0774348339411309</v>
+        <v>0.054526110264054</v>
       </c>
       <c r="T5">
-        <v>0.0592648803311429</v>
+        <v>0.03996316515233178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H6">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I6">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J6">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>3917.579015098534</v>
+        <v>4902.736835325749</v>
       </c>
       <c r="R6">
-        <v>35258.21113588681</v>
+        <v>44124.63151793175</v>
       </c>
       <c r="S6">
-        <v>0.03882214165769039</v>
+        <v>0.05378796712441211</v>
       </c>
       <c r="T6">
-        <v>0.04456888707136995</v>
+        <v>0.05913325018944573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>292.369896</v>
       </c>
       <c r="I7">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J7">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>13470.36653470726</v>
+        <v>11882.76424694705</v>
       </c>
       <c r="R7">
-        <v>121233.2988123654</v>
+        <v>106944.8782225234</v>
       </c>
       <c r="S7">
-        <v>0.1334876656669717</v>
+        <v>0.1303659066618983</v>
       </c>
       <c r="T7">
-        <v>0.1532475139828747</v>
+        <v>0.1433212702941731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>292.369896</v>
       </c>
       <c r="I8">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J8">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>14415.23242633656</v>
@@ -948,10 +948,10 @@
         <v>129737.091837029</v>
       </c>
       <c r="S8">
-        <v>0.1428510294564395</v>
+        <v>0.1581496363932479</v>
       </c>
       <c r="T8">
-        <v>0.1639969133081506</v>
+        <v>0.17386606180116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>292.369896</v>
       </c>
       <c r="I9">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J9">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>7238.359135131487</v>
+        <v>8138.113066489952</v>
       </c>
       <c r="R9">
-        <v>65145.23221618339</v>
+        <v>73243.01759840955</v>
       </c>
       <c r="S9">
-        <v>0.07173016871651892</v>
+        <v>0.08928330701356647</v>
       </c>
       <c r="T9">
-        <v>0.08234820781721494</v>
+        <v>0.09815600800012621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>292.369896</v>
       </c>
       <c r="I10">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J10">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>16495.12901290036</v>
+        <v>8875.225636668301</v>
       </c>
       <c r="R10">
-        <v>98970.77407740214</v>
+        <v>53251.3538200098</v>
       </c>
       <c r="S10">
-        <v>0.1634622384724484</v>
+        <v>0.09737017523094034</v>
       </c>
       <c r="T10">
-        <v>0.1251060990083001</v>
+        <v>0.07136434957163663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>292.369896</v>
       </c>
       <c r="I11">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J11">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>8269.872906133385</v>
+        <v>8755.077933398159</v>
       </c>
       <c r="R11">
-        <v>74428.85615520047</v>
+        <v>78795.70140058344</v>
       </c>
       <c r="S11">
-        <v>0.08195218940464202</v>
+        <v>0.09605203376615609</v>
       </c>
       <c r="T11">
-        <v>0.0940833688937785</v>
+        <v>0.1055973900400735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H12">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I12">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J12">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>34.36550333248356</v>
+        <v>31.99308504077499</v>
       </c>
       <c r="R12">
-        <v>309.289529992352</v>
+        <v>287.9377653669749</v>
       </c>
       <c r="S12">
-        <v>0.0003405527835864089</v>
+        <v>0.0003509964055142661</v>
       </c>
       <c r="T12">
-        <v>0.0003909639681224717</v>
+        <v>0.0003858773508740985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H13">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I13">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J13">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>36.77603847745333</v>
+        <v>38.81148757258332</v>
       </c>
       <c r="R13">
-        <v>330.98434629708</v>
+        <v>349.30338815325</v>
       </c>
       <c r="S13">
-        <v>0.0003644405307149768</v>
+        <v>0.0004258011571336842</v>
       </c>
       <c r="T13">
-        <v>0.0004183877592556352</v>
+        <v>0.000468115969088446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H14">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I14">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J14">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>18.46645036266489</v>
+        <v>21.91100807832222</v>
       </c>
       <c r="R14">
-        <v>166.198053263984</v>
+        <v>197.1990727049</v>
       </c>
       <c r="S14">
-        <v>0.0001829974964464253</v>
+        <v>0.0002403858542207922</v>
       </c>
       <c r="T14">
-        <v>0.0002100861623085781</v>
+        <v>0.0002642746625237345</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H15">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I15">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J15">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>42.082255861562</v>
+        <v>23.89560565614583</v>
       </c>
       <c r="R15">
-        <v>252.493535169372</v>
+        <v>143.373633936875</v>
       </c>
       <c r="S15">
-        <v>0.0004170237006161931</v>
+        <v>0.0002621588909667206</v>
       </c>
       <c r="T15">
-        <v>0.0003191697903176016</v>
+        <v>0.0001921409578845733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H16">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I16">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J16">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>21.09804096144578</v>
+        <v>23.57212068175</v>
       </c>
       <c r="R16">
-        <v>189.882368653012</v>
+        <v>212.14908613575</v>
       </c>
       <c r="S16">
-        <v>0.0002090758429500117</v>
+        <v>0.0002586099345873622</v>
       </c>
       <c r="T16">
-        <v>0.0002400248218131125</v>
+        <v>0.0002843097960564137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H17">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I17">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J17">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>2783.905843565427</v>
+        <v>2221.480477317391</v>
       </c>
       <c r="R17">
-        <v>16703.43506139256</v>
+        <v>13328.88286390435</v>
       </c>
       <c r="S17">
-        <v>0.02758774911853328</v>
+        <v>0.02437188103194041</v>
       </c>
       <c r="T17">
-        <v>0.02111433016513536</v>
+        <v>0.01786258917123794</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H18">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I18">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J18">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>2979.18023868415</v>
+        <v>2694.924913563505</v>
       </c>
       <c r="R18">
-        <v>17875.0814321049</v>
+        <v>16169.54948138103</v>
       </c>
       <c r="S18">
-        <v>0.02952286521962568</v>
+        <v>0.0295660439306206</v>
       </c>
       <c r="T18">
-        <v>0.0225953745261951</v>
+        <v>0.0216694844135878</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H19">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I19">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J19">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>1495.943725228087</v>
+        <v>1521.418663511213</v>
       </c>
       <c r="R19">
-        <v>8975.662351368521</v>
+        <v>9128.511981067275</v>
       </c>
       <c r="S19">
-        <v>0.01482439511466424</v>
+        <v>0.01669149697486687</v>
       </c>
       <c r="T19">
-        <v>0.0113458757220307</v>
+        <v>0.01223349780528901</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H20">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I20">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J20">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>3409.030179769853</v>
+        <v>1659.221715916056</v>
       </c>
       <c r="R20">
-        <v>13636.12071907941</v>
+        <v>6636.886863664226</v>
       </c>
       <c r="S20">
-        <v>0.03378256112877361</v>
+        <v>0.01820333542374884</v>
       </c>
       <c r="T20">
-        <v>0.01723702663410613</v>
+        <v>0.008894367564941838</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H21">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I21">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J21">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>1709.125542323519</v>
+        <v>1636.760126031555</v>
       </c>
       <c r="R21">
-        <v>10254.75325394111</v>
+        <v>9820.56075618933</v>
       </c>
       <c r="S21">
-        <v>0.01693696889306818</v>
+        <v>0.01795690913189397</v>
       </c>
       <c r="T21">
-        <v>0.01296273761474171</v>
+        <v>0.013160941093874</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H22">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I22">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J22">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>27.34959470702045</v>
+        <v>11.950926638911</v>
       </c>
       <c r="R22">
-        <v>246.146352363184</v>
+        <v>107.558339750199</v>
       </c>
       <c r="S22">
-        <v>0.0002710270388687137</v>
+        <v>0.0001311137168383821</v>
       </c>
       <c r="T22">
-        <v>0.0003111464997252323</v>
+        <v>0.0001441433955505142</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H23">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I23">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J23">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>29.26800569620668</v>
+        <v>14.49792166450333</v>
       </c>
       <c r="R23">
-        <v>263.41205126586</v>
+        <v>130.48129498053</v>
       </c>
       <c r="S23">
-        <v>0.0002900379695717882</v>
+        <v>0.000159056820721807</v>
       </c>
       <c r="T23">
-        <v>0.0003329715713840269</v>
+        <v>0.0001748633993235942</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H24">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I24">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J24">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>14.69642182190311</v>
+        <v>8.184795239186222</v>
       </c>
       <c r="R24">
-        <v>132.267796397128</v>
+        <v>73.66315715267599</v>
       </c>
       <c r="S24">
-        <v>0.0001456375398255355</v>
+        <v>8.979545752350022E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001671959039011603</v>
+        <v>9.871905445563763E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H25">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I25">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J25">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>33.49092929137901</v>
+        <v>8.926136064245835</v>
       </c>
       <c r="R25">
-        <v>200.9455757482741</v>
+        <v>53.55681638547501</v>
       </c>
       <c r="S25">
-        <v>0.0003318859929018959</v>
+        <v>9.792871396079817E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002540095025950041</v>
+        <v>7.177371263452868E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H26">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I26">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J26">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>16.79075856462823</v>
+        <v>8.80529916487</v>
       </c>
       <c r="R26">
-        <v>151.116827081654</v>
+        <v>79.24769248382999</v>
       </c>
       <c r="S26">
-        <v>0.0001663918468584303</v>
+        <v>9.660301131973209E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001910224195671344</v>
+        <v>0.0001062031220516407</v>
       </c>
     </row>
   </sheetData>
